--- a/data/trans_orig/P02F-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P02F-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>1020555</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1010057</v>
+        <v>1009881</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1027511</v>
+        <v>1027478</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9836206223715941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9735033038105826</v>
+        <v>0.9733330643248163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9903252708416237</v>
+        <v>0.9902930429110676</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>981</v>
@@ -763,19 +763,19 @@
         <v>1065291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1050182</v>
+        <v>1048037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1078837</v>
+        <v>1078227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9528408450598382</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9393265069490865</v>
+        <v>0.9374078329802561</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9649562321931967</v>
+        <v>0.964410679359033</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1937</v>
@@ -784,19 +784,19 @@
         <v>2085846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2067800</v>
+        <v>2066619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2102145</v>
+        <v>2100940</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9676562284006029</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9592842346413912</v>
+        <v>0.9587366386569428</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9752177964631349</v>
+        <v>0.9746586375255785</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>16994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10038</v>
+        <v>10071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27492</v>
+        <v>27668</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01637937762840587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00967472915837631</v>
+        <v>0.009706957088932431</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02649669618941737</v>
+        <v>0.02666693567518375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -834,19 +834,19 @@
         <v>52725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39179</v>
+        <v>39789</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>67834</v>
+        <v>69979</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04715915494016177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03504376780680333</v>
+        <v>0.03558932064096691</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06067349305091348</v>
+        <v>0.06259216701974377</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -855,19 +855,19 @@
         <v>69719</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53420</v>
+        <v>54625</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87765</v>
+        <v>88946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03234377159939709</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02478220353686488</v>
+        <v>0.02534136247442147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04071576535860873</v>
+        <v>0.04126336134305709</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>960452</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>950926</v>
+        <v>950354</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>965685</v>
+        <v>965878</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9867395448769301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9769532756880726</v>
+        <v>0.976365152198342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9921164321543902</v>
+        <v>0.9923139106656523</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>988</v>
@@ -980,19 +980,19 @@
         <v>1057696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1044851</v>
+        <v>1043962</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1067999</v>
+        <v>1067689</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9712928916690492</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9594966118893179</v>
+        <v>0.9586810346210342</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9807541395056046</v>
+        <v>0.9804694431431275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1896</v>
@@ -1001,19 +1001,19 @@
         <v>2018148</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2003248</v>
+        <v>2002387</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2030725</v>
+        <v>2031021</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9785833074099931</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9713583336246012</v>
+        <v>0.9709410538574595</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.984681687868992</v>
+        <v>0.984825509857853</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>12907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7674</v>
+        <v>7481</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22433</v>
+        <v>23005</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01326045512306999</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007883567845609831</v>
+        <v>0.007686089334347613</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02304672431192713</v>
+        <v>0.02363484780165793</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1051,19 +1051,19 @@
         <v>31261</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20958</v>
+        <v>21268</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44106</v>
+        <v>44995</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02870710833095078</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01924586049439526</v>
+        <v>0.01953055685687239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04050338811068191</v>
+        <v>0.0413189653789659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1072,19 +1072,19 @@
         <v>44168</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>31591</v>
+        <v>31295</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59068</v>
+        <v>59929</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02141669259000692</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01531831213100784</v>
+        <v>0.01517449014214695</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02864166637539878</v>
+        <v>0.02905894614254044</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>873935</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>865411</v>
+        <v>865149</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>879013</v>
+        <v>878975</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9907215207503088</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9810584210022698</v>
+        <v>0.9807609245423068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9964778260701058</v>
+        <v>0.9964343784061146</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>793</v>
@@ -1197,19 +1197,19 @@
         <v>847338</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>835367</v>
+        <v>835126</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>855677</v>
+        <v>855652</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9719711714129315</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9582396195533717</v>
+        <v>0.9579624088165362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9815367912693413</v>
+        <v>0.9815077888009407</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1613</v>
@@ -1218,19 +1218,19 @@
         <v>1721273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1707762</v>
+        <v>1709963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1731755</v>
+        <v>1731395</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9814016541116652</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.973698179190871</v>
+        <v>0.9749527660758971</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9873779963615277</v>
+        <v>0.9871724039099964</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>8185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3107</v>
+        <v>3145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16709</v>
+        <v>16971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009278479249691175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003522173929894252</v>
+        <v>0.003565621593885448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0189415789977303</v>
+        <v>0.01923907545769334</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1268,19 +1268,19 @@
         <v>24435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16096</v>
+        <v>16121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36406</v>
+        <v>36647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02802882858706844</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01846320873065861</v>
+        <v>0.01849221119905934</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04176038044662839</v>
+        <v>0.04203759118346401</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>31</v>
@@ -1289,19 +1289,19 @@
         <v>32620</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22138</v>
+        <v>22498</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>46131</v>
+        <v>43930</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01859834588833472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01262200363847215</v>
+        <v>0.01282759609000298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02630182080912891</v>
+        <v>0.0250472339241029</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>494286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>487158</v>
+        <v>486461</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>498249</v>
+        <v>498324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9845219281247589</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9703250163475976</v>
+        <v>0.9689362532854513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9924150957033714</v>
+        <v>0.9925649897352801</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>395</v>
@@ -1414,19 +1414,19 @@
         <v>434826</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>426595</v>
+        <v>424157</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>442532</v>
+        <v>441868</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9627973426831773</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9445718629864807</v>
+        <v>0.9391741652203671</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9798601148041218</v>
+        <v>0.9783891836194735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>847</v>
@@ -1435,19 +1435,19 @@
         <v>929112</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>917797</v>
+        <v>918076</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>937107</v>
+        <v>937852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9742340116551113</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9623694495719018</v>
+        <v>0.9626613293294948</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9826168137805812</v>
+        <v>0.9833983925598345</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>7771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3808</v>
+        <v>3733</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14899</v>
+        <v>15596</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01547807187524107</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007584904296628518</v>
+        <v>0.00743501026471975</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02967498365240241</v>
+        <v>0.03106374671454844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1485,19 +1485,19 @@
         <v>16802</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9096</v>
+        <v>9760</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25033</v>
+        <v>27471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03720265731682267</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0201398851958782</v>
+        <v>0.0216108163805263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05542813701351942</v>
+        <v>0.06082583477963244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1506,19 +1506,19 @@
         <v>24573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16578</v>
+        <v>15833</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35888</v>
+        <v>35609</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02576598834488878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01738318621941886</v>
+        <v>0.01660160744016541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03763055042809816</v>
+        <v>0.03733867067050523</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>3349228</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3332504</v>
+        <v>3331469</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3362195</v>
+        <v>3361774</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.986493063756175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.981567101411377</v>
+        <v>0.9812623067362681</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9903123948146125</v>
+        <v>0.9901884567282264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3157</v>
@@ -1631,19 +1631,19 @@
         <v>3405153</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3380632</v>
+        <v>3380975</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3425614</v>
+        <v>3426024</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9645300923709631</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9575844824718336</v>
+        <v>0.9576814129780505</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.970325818715351</v>
+        <v>0.9704420074926453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6293</v>
@@ -1652,19 +1652,19 @@
         <v>6754381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6726371</v>
+        <v>6723807</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6780457</v>
+        <v>6780330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9752970542628658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9712526496347053</v>
+        <v>0.9708823525660522</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9790623401056338</v>
+        <v>0.9790440502173221</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>45857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>32890</v>
+        <v>33311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62581</v>
+        <v>63616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01350693624382506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009687605185387629</v>
+        <v>0.009811543271773523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01843289858862306</v>
+        <v>0.01873769326373191</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -1702,19 +1702,19 @@
         <v>125222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104761</v>
+        <v>104351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>149743</v>
+        <v>149400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03546990762903685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02967418128464933</v>
+        <v>0.02955799250735501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0424155175281666</v>
+        <v>0.04231858702194985</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -1723,19 +1723,19 @@
         <v>171079</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145003</v>
+        <v>145130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>199089</v>
+        <v>201653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02470294573713422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0209376598943663</v>
+        <v>0.02095594978267771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02874735036529476</v>
+        <v>0.02911764743394778</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>1104426</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1093082</v>
+        <v>1093368</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1111616</v>
+        <v>1111903</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9830409641109655</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9729438453088385</v>
+        <v>0.9731980016094059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9894406168528319</v>
+        <v>0.9896967298934911</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1129</v>
@@ -2088,19 +2088,19 @@
         <v>1192470</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1173756</v>
+        <v>1176916</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1204078</v>
+        <v>1206192</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9542177388628827</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9392432511479279</v>
+        <v>0.9417715755551134</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.963506595235338</v>
+        <v>0.9651987621506466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2173</v>
@@ -2109,19 +2109,19 @@
         <v>2296897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2274582</v>
+        <v>2278327</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2313080</v>
+        <v>2313216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.967862946107346</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9584601853025773</v>
+        <v>0.9600381022487442</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9746823667479124</v>
+        <v>0.9747396999435095</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>19053</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11863</v>
+        <v>11576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30397</v>
+        <v>30111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0169590358890345</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01055938314716806</v>
+        <v>0.01030327010650882</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02705615469116135</v>
+        <v>0.02680199839059404</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -2159,19 +2159,19 @@
         <v>57213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>45605</v>
+        <v>43491</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75927</v>
+        <v>72767</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0457822611371172</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03649340476466209</v>
+        <v>0.03480123784935343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06075674885207216</v>
+        <v>0.05822842444488661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>69</v>
@@ -2180,19 +2180,19 @@
         <v>76266</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>60083</v>
+        <v>59947</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98581</v>
+        <v>94836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03213705389265394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02531763325208755</v>
+        <v>0.02526030005649049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04153981469742216</v>
+        <v>0.03996189775125584</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>886084</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>875638</v>
+        <v>874669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>893007</v>
+        <v>893053</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9792630157473687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9677179067674248</v>
+        <v>0.966647043246</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9869133346173573</v>
+        <v>0.986964859489423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>904</v>
@@ -2305,19 +2305,19 @@
         <v>958179</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>943148</v>
+        <v>941344</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>968794</v>
+        <v>968451</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.955907655160418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9409126093943841</v>
+        <v>0.9391123025424593</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9664980703728233</v>
+        <v>0.9661550353894327</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1764</v>
@@ -2326,19 +2326,19 @@
         <v>1844263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1825880</v>
+        <v>1826406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1858546</v>
+        <v>1858055</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9669881810115359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9573496643293068</v>
+        <v>0.957625207177793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9744768637604003</v>
+        <v>0.974219786568448</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>18764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11841</v>
+        <v>11795</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29210</v>
+        <v>30179</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02073698425263126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01308666538264267</v>
+        <v>0.01303514051057694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03228209323257519</v>
+        <v>0.0333529567539999</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>43</v>
@@ -2376,19 +2376,19 @@
         <v>44197</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33582</v>
+        <v>33925</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59228</v>
+        <v>61032</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.044092344839582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03350192962717669</v>
+        <v>0.03384496461056781</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05908739060561589</v>
+        <v>0.06088769745754084</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>60</v>
@@ -2397,19 +2397,19 @@
         <v>62961</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48678</v>
+        <v>49169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81344</v>
+        <v>80818</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03301181898846409</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02552313623959963</v>
+        <v>0.02578021343155191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04265033567069309</v>
+        <v>0.04237479282220696</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>804022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>794311</v>
+        <v>794451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>810160</v>
+        <v>810319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9820981006937037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9702359560018551</v>
+        <v>0.9704070753568048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9895959795053159</v>
+        <v>0.9897897216611787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>695</v>
@@ -2522,19 +2522,19 @@
         <v>737034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>725471</v>
+        <v>724006</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>747371</v>
+        <v>745991</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9631030979826128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9479939973606538</v>
+        <v>0.9460787624003467</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9766111107882964</v>
+        <v>0.9748077896916214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1463</v>
@@ -2543,19 +2543,19 @@
         <v>1541056</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1526322</v>
+        <v>1526403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1552288</v>
+        <v>1552947</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9729208363554732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9636187875766725</v>
+        <v>0.9636696470986038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9800121416811008</v>
+        <v>0.9804283314707193</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>14656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8518</v>
+        <v>8359</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24367</v>
+        <v>24227</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01790189930629628</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01040402049468387</v>
+        <v>0.01021027833882127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02976404399814465</v>
+        <v>0.02959292464319485</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -2593,19 +2593,19 @@
         <v>28236</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17899</v>
+        <v>19279</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39799</v>
+        <v>41264</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03689690201738716</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02338888921170356</v>
+        <v>0.0251922103083786</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05200600263934619</v>
+        <v>0.05392123759965318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>41</v>
@@ -2614,19 +2614,19 @@
         <v>42892</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31660</v>
+        <v>31001</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57626</v>
+        <v>57545</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02707916364452682</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01998785831889912</v>
+        <v>0.01957166852928076</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03638121242332738</v>
+        <v>0.03633035290139618</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>494880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>488185</v>
+        <v>486782</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>499872</v>
+        <v>499870</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9802483343046393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9669870218748418</v>
+        <v>0.9642065082214706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9901360213933367</v>
+        <v>0.9901326167277104</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>432</v>
@@ -2739,19 +2739,19 @@
         <v>463617</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>452609</v>
+        <v>450824</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>472297</v>
+        <v>472407</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.951741405559332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9291430740283467</v>
+        <v>0.9254795637658836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9695610270656242</v>
+        <v>0.9697850166617994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>891</v>
@@ -2760,19 +2760,19 @@
         <v>958498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>945084</v>
+        <v>944855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>968805</v>
+        <v>969017</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.966249584811105</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9527264548230537</v>
+        <v>0.9524957787456232</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9766398272591746</v>
+        <v>0.976853485390816</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>9972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4980</v>
+        <v>4982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16667</v>
+        <v>18070</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01975166569536072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009863978606663236</v>
+        <v>0.009867383272289577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03301297812515827</v>
+        <v>0.0357934917785292</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -2810,19 +2810,19 @@
         <v>23508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14828</v>
+        <v>14718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34516</v>
+        <v>36301</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04825859444066807</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0304389729343762</v>
+        <v>0.03021498333820062</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07085692597165333</v>
+        <v>0.07452043623411639</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>31</v>
@@ -2831,19 +2831,19 @@
         <v>33480</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23173</v>
+        <v>22961</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46894</v>
+        <v>47123</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03375041518889501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02336017274082531</v>
+        <v>0.02314651460918403</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04727354517694626</v>
+        <v>0.0475042212543768</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>3289413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3272371</v>
+        <v>3272739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3304632</v>
+        <v>3304721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9813701784698724</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9762855458766868</v>
+        <v>0.97639540542134</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9859103630271649</v>
+        <v>0.9859369306180085</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3160</v>
@@ -2956,19 +2956,19 @@
         <v>3351301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3326756</v>
+        <v>3323470</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3375101</v>
+        <v>3376966</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9562971915070594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9492932264623772</v>
+        <v>0.9483555835113749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9630883274981809</v>
+        <v>0.9636206300652338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6291</v>
@@ -2977,19 +2977,19 @@
         <v>6640714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6608529</v>
+        <v>6605250</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6671670</v>
+        <v>6666081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9685546656338774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.963860387216249</v>
+        <v>0.9633821582057357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9730696944877041</v>
+        <v>0.9722544429464628</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>62445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>47226</v>
+        <v>47137</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79487</v>
+        <v>79119</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01862982153012761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01408963697283505</v>
+        <v>0.01406306938199154</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02371445412331282</v>
+        <v>0.02360459457866003</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -3027,19 +3027,19 @@
         <v>153155</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>129355</v>
+        <v>127490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177700</v>
+        <v>180986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04370280849294064</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03691167250181915</v>
+        <v>0.03637936993476626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05070677353762271</v>
+        <v>0.05164441648862502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -3048,19 +3048,19 @@
         <v>215599</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>184643</v>
+        <v>190232</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247784</v>
+        <v>251063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03144533436612264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02693030551229627</v>
+        <v>0.02774555705353702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03613961278375101</v>
+        <v>0.03661784179426347</v>
       </c>
     </row>
     <row r="18">
